--- a/ATS_HR/ExcelFiles/ATS_Registration_2.xlsx
+++ b/ATS_HR/ExcelFiles/ATS_Registration_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>

--- a/ATS_HR/ExcelFiles/ATS_Registration_2.xlsx
+++ b/ATS_HR/ExcelFiles/ATS_Registration_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>UserName</t>
   </si>
@@ -85,6 +85,54 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>fail--1575447381769</t>
+  </si>
+  <si>
+    <t>fail--1575447382141</t>
+  </si>
+  <si>
+    <t>fail--1575447382191</t>
+  </si>
+  <si>
+    <t>fail--1575447382231</t>
+  </si>
+  <si>
+    <t>fail--1575447389120</t>
+  </si>
+  <si>
+    <t>fail--1575447389156</t>
+  </si>
+  <si>
+    <t>fail--1575447389185</t>
+  </si>
+  <si>
+    <t>fail--1575447389217</t>
+  </si>
+  <si>
+    <t>fail--1575447396140</t>
+  </si>
+  <si>
+    <t>fail--1575447396178</t>
+  </si>
+  <si>
+    <t>fail--1575447396210</t>
+  </si>
+  <si>
+    <t>fail--1575447396243</t>
+  </si>
+  <si>
+    <t>fail--1575447403505</t>
+  </si>
+  <si>
+    <t>fail--1575447403541</t>
+  </si>
+  <si>
+    <t>fail--1575447403573</t>
+  </si>
+  <si>
+    <t>fail--1575447403601</t>
   </si>
 </sst>
 </file>
@@ -392,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -415,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -461,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
